--- a/results/technical_validation/df_validation_nrcan_usgs.xlsx
+++ b/results/technical_validation/df_validation_nrcan_usgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/canada_metal_sustainability_db/results/technical_validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_6831F2E19251260E62355476585DCE3A8747849C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6946E903-D06B-47BE-A8C6-9CBB02BB547D}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_6831F2E19251260E62355476585DCE3A8747849C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{250150D9-2B03-4674-A522-0586B340FAAA}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,12 +410,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -525,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -537,7 +543,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,6 +555,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -567,6 +587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,6 +892,7 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -886,7 +911,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -906,7 +931,7 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -914,39 +939,39 @@
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>3200</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
         <v>3200000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>43691</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1006,7 +1031,7 @@
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1014,119 +1039,119 @@
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>4220</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11">
         <v>4220</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>3260</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="14">
         <v>500</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15">
         <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="17">
         <v>484552</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="17">
         <v>1272135</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="18">
         <v>1272135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="20">
         <v>315</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="21">
         <v>315000</v>
       </c>
     </row>
@@ -1186,7 +1211,7 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1194,39 +1219,39 @@
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>198</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
         <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>215873</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1306,7 +1331,7 @@
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1314,19 +1339,19 @@
       <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>17708017</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1334,19 +1359,19 @@
       <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>12</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11">
         <v>12000000</v>
       </c>
     </row>
@@ -1354,19 +1379,19 @@
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="11">
         <v>6000000</v>
       </c>
     </row>
@@ -1374,39 +1399,39 @@
       <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>35700</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="12">
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11">
         <v>35700000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>59400</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="12">
         <v>59400000</v>
       </c>
     </row>
@@ -1426,27 +1451,27 @@
       <c r="E28" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>3240</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>31600000</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1486,7 +1511,7 @@
       <c r="E31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1150</v>
       </c>
     </row>
@@ -1494,39 +1519,39 @@
       <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>2537</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>1171</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1546,7 +1571,7 @@
       <c r="E34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>159000</v>
       </c>
     </row>
@@ -1554,39 +1579,39 @@
       <c r="A35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>127237</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>949184</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1626,7 +1651,7 @@
       <c r="E38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1634,19 +1659,19 @@
       <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>17267477</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1654,19 +1679,19 @@
       <c r="A40" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40">
         <v>6119780</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1674,19 +1699,19 @@
       <c r="A41" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41">
         <v>23970214</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1694,19 +1719,19 @@
       <c r="A42" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42">
         <v>11541177</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1714,39 +1739,39 @@
       <c r="A43" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43">
         <v>5170</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="12">
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="11">
         <v>5.17</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>16100</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="12">
         <v>16.100000000000001</v>
       </c>
     </row>
@@ -1866,7 +1891,7 @@
       <c r="E50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1874,39 +1899,39 @@
       <c r="A51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51">
         <v>6720981</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>306</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="E52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="12">
         <v>306</v>
       </c>
     </row>
